--- a/output/xlsx/UC001 - Solicitar diarias--ART-.xlsx
+++ b/output/xlsx/UC001 - Solicitar diarias--ART-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -230,7 +230,7 @@
     <t>SYSTEM Calcula o valor da(s) diaria(s) com as informacoes do formulario.</t>
   </si>
   <si>
-    <t>Chefe/Beneficiário Verifica os valores presentes na tela.</t>
+    <t>Chefe/Beneficiário Verifica os valores presentes na tela: 1. Magistrados e desembargadores: não podem ultrapassar 60% do valor de um diária de um ministro do STF. 2. Servidores não podem ultrapassar 60% do valor de uma diária de um Magistrado.</t>
   </si>
   <si>
     <t>SYSTEM Altera o status da diaria para SOLICITADA: (antes) para empenho; ou, (depois) para prestação de contas</t>

--- a/output/xlsx/UC001 - Solicitar diarias--ART-.xlsx
+++ b/output/xlsx/UC001 - Solicitar diarias--ART-.xlsx
@@ -215,7 +215,7 @@
     <t>SYSTEM Calcula o valor da(s) diaria(s) com as informacoes do formulario.</t>
   </si>
   <si>
-    <t>Chefe/Beneficiário Verifica os valores presentes na tela: 1. Magistrados e desembargadores: não podem ultrapassar 60% do valor de um diária de um ministro do STF. 2. Servidores não podem ultrapassar 60% do valor de uma diária de um Magistrado.</t>
+    <t>Chefe/Beneficiário Verifica os valores presentes na tela: 1. Magistrados e desembargadores: não podem ultrapassar 60% do valor de um diária de um ministro do STF. 2. Servidores não podem ultrapassar 60% do valor de uma diária de um Magistrado. 3. Manutenção do cargo comissionado e do setor beneficiário à época da concessão da diária.</t>
   </si>
   <si>
     <t>SYSTEM Altera o status da diaria para SOLICITADA: (antes) para empenho; ou, (depois) para prestação de contas</t>

--- a/output/xlsx/UC001 - Solicitar diarias--ART-.xlsx
+++ b/output/xlsx/UC001 - Solicitar diarias--ART-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4050" uniqueCount="118">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -41,7 +41,7 @@
     <t>Reduced (Adaptive Random Testing by Jaccard Distance)</t>
   </si>
   <si>
-    <t>Size: 26 test case(s))</t>
+    <t>Size: 46 test case(s))</t>
   </si>
   <si>
     <t xml:space="preserve">Creation Date: </t>
@@ -242,16 +242,10 @@
     <t>TC14</t>
   </si>
   <si>
-    <t>Chefe/Beneficiário Seleciona o tipo de viagem nacional - dentro do estado (intermunicipal).</t>
+    <t>SYSTEM Exibe os beneficiarios selecionados e o campo para preenchimento do nome social</t>
   </si>
   <si>
-    <t>SYSTEM Exibe a opcao escolhida: viagem nacional - dentro do estado (intermunicipal)</t>
-  </si>
-  <si>
-    <t>Chefe/Beneficiário NÃO Escolhe o estado.</t>
-  </si>
-  <si>
-    <t>SYSTEM O sistema seleciona o estado como PB, automaticamente.</t>
+    <t>Chefe/Beneficiário Informa o nome social do beneficiario da(s) diaria(s)</t>
   </si>
   <si>
     <t>TC15</t>
@@ -284,10 +278,82 @@
     <t>TC24</t>
   </si>
   <si>
+    <t>Chefe/Beneficiário Seleciona o tipo de viagem nacional - dentro do estado (intermunicipal).</t>
+  </si>
+  <si>
+    <t>SYSTEM Exibe a opcao escolhida: viagem nacional - dentro do estado (intermunicipal)</t>
+  </si>
+  <si>
+    <t>Chefe/Beneficiário NÃO Escolhe o estado.</t>
+  </si>
+  <si>
+    <t>SYSTEM O sistema seleciona o estado como PB, automaticamente.</t>
+  </si>
+  <si>
     <t>TC25</t>
   </si>
   <si>
     <t>TC26</t>
+  </si>
+  <si>
+    <t>TC27</t>
+  </si>
+  <si>
+    <t>TC28</t>
+  </si>
+  <si>
+    <t>TC29</t>
+  </si>
+  <si>
+    <t>TC30</t>
+  </si>
+  <si>
+    <t>TC31</t>
+  </si>
+  <si>
+    <t>TC32</t>
+  </si>
+  <si>
+    <t>TC33</t>
+  </si>
+  <si>
+    <t>TC34</t>
+  </si>
+  <si>
+    <t>TC35</t>
+  </si>
+  <si>
+    <t>TC36</t>
+  </si>
+  <si>
+    <t>TC37</t>
+  </si>
+  <si>
+    <t>TC38</t>
+  </si>
+  <si>
+    <t>TC39</t>
+  </si>
+  <si>
+    <t>TC40</t>
+  </si>
+  <si>
+    <t>TC41</t>
+  </si>
+  <si>
+    <t>TC42</t>
+  </si>
+  <si>
+    <t>TC43</t>
+  </si>
+  <si>
+    <t>TC44</t>
+  </si>
+  <si>
+    <t>TC45</t>
+  </si>
+  <si>
+    <t>TC46</t>
   </si>
   <si>
     <t>Chefe/Beneficiário Seleciona o tipo de viagem internacional.</t>
@@ -495,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F479"/>
+  <dimension ref="A1:F863"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -4842,13 +4908,13 @@
         <v>1.0</v>
       </c>
       <c r="B244" t="s" s="7">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C244" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D244" t="s" s="7">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E244" t="s" s="6">
         <v>2</v>
@@ -4862,13 +4928,13 @@
         <v>2.0</v>
       </c>
       <c r="B245" t="s" s="7">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="C245" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D245" t="s" s="7">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="E245" t="s" s="6">
         <v>2</v>
@@ -5048,7 +5114,7 @@
         <v>2</v>
       </c>
       <c r="D254" t="s" s="7">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E254" t="s" s="6">
         <v>2</v>
@@ -5062,7 +5128,7 @@
         <v>12.0</v>
       </c>
       <c r="B255" t="s" s="7">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C255" t="s" s="6">
         <v>2</v>
@@ -5144,7 +5210,7 @@
         <v>12</v>
       </c>
       <c r="B261" t="s" s="4">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C261" t="s" s="4">
         <v>14</v>
@@ -5224,13 +5290,13 @@
         <v>1.0</v>
       </c>
       <c r="B265" t="s" s="7">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C265" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D265" t="s" s="7">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E265" t="s" s="6">
         <v>2</v>
@@ -5244,13 +5310,13 @@
         <v>2.0</v>
       </c>
       <c r="B266" t="s" s="7">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="C266" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D266" t="s" s="7">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="E266" t="s" s="6">
         <v>2</v>
@@ -5430,7 +5496,7 @@
         <v>2</v>
       </c>
       <c r="D275" t="s" s="7">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E275" t="s" s="6">
         <v>2</v>
@@ -5444,7 +5510,7 @@
         <v>12.0</v>
       </c>
       <c r="B276" t="s" s="7">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C276" t="s" s="6">
         <v>2</v>
@@ -5526,7 +5592,7 @@
         <v>12</v>
       </c>
       <c r="B282" t="s" s="4">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C282" t="s" s="4">
         <v>14</v>
@@ -5606,13 +5672,13 @@
         <v>1.0</v>
       </c>
       <c r="B286" t="s" s="7">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C286" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D286" t="s" s="7">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E286" t="s" s="6">
         <v>2</v>
@@ -5626,13 +5692,13 @@
         <v>2.0</v>
       </c>
       <c r="B287" t="s" s="7">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="C287" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D287" t="s" s="7">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="E287" t="s" s="6">
         <v>2</v>
@@ -5812,7 +5878,7 @@
         <v>2</v>
       </c>
       <c r="D296" t="s" s="7">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E296" t="s" s="6">
         <v>2</v>
@@ -5826,7 +5892,7 @@
         <v>12.0</v>
       </c>
       <c r="B297" t="s" s="7">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C297" t="s" s="6">
         <v>2</v>
@@ -5868,7 +5934,7 @@
         <v>12</v>
       </c>
       <c r="B301" t="s" s="4">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C301" t="s" s="4">
         <v>14</v>
@@ -5948,13 +6014,13 @@
         <v>1.0</v>
       </c>
       <c r="B305" t="s" s="7">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C305" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D305" t="s" s="7">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E305" t="s" s="6">
         <v>2</v>
@@ -5968,13 +6034,13 @@
         <v>2.0</v>
       </c>
       <c r="B306" t="s" s="7">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="C306" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D306" t="s" s="7">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="E306" t="s" s="6">
         <v>2</v>
@@ -6154,7 +6220,7 @@
         <v>2</v>
       </c>
       <c r="D315" t="s" s="7">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E315" t="s" s="6">
         <v>2</v>
@@ -6168,7 +6234,7 @@
         <v>12.0</v>
       </c>
       <c r="B316" t="s" s="7">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C316" t="s" s="6">
         <v>2</v>
@@ -6210,7 +6276,7 @@
         <v>12</v>
       </c>
       <c r="B320" t="s" s="4">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C320" t="s" s="4">
         <v>14</v>
@@ -6290,13 +6356,13 @@
         <v>1.0</v>
       </c>
       <c r="B324" t="s" s="7">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C324" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D324" t="s" s="7">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E324" t="s" s="6">
         <v>2</v>
@@ -6310,13 +6376,13 @@
         <v>2.0</v>
       </c>
       <c r="B325" t="s" s="7">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="C325" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D325" t="s" s="7">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="E325" t="s" s="6">
         <v>2</v>
@@ -6496,7 +6562,7 @@
         <v>2</v>
       </c>
       <c r="D334" t="s" s="7">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E334" t="s" s="6">
         <v>2</v>
@@ -6510,7 +6576,7 @@
         <v>12.0</v>
       </c>
       <c r="B335" t="s" s="7">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C335" t="s" s="6">
         <v>2</v>
@@ -6552,7 +6618,7 @@
         <v>12</v>
       </c>
       <c r="B339" t="s" s="4">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C339" t="s" s="4">
         <v>14</v>
@@ -6632,13 +6698,13 @@
         <v>1.0</v>
       </c>
       <c r="B343" t="s" s="7">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C343" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D343" t="s" s="7">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E343" t="s" s="6">
         <v>2</v>
@@ -6652,13 +6718,13 @@
         <v>2.0</v>
       </c>
       <c r="B344" t="s" s="7">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="C344" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D344" t="s" s="7">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="E344" t="s" s="6">
         <v>2</v>
@@ -6838,7 +6904,7 @@
         <v>2</v>
       </c>
       <c r="D353" t="s" s="7">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E353" t="s" s="6">
         <v>2</v>
@@ -6852,7 +6918,7 @@
         <v>12.0</v>
       </c>
       <c r="B354" t="s" s="7">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C354" t="s" s="6">
         <v>2</v>
@@ -6894,7 +6960,7 @@
         <v>12</v>
       </c>
       <c r="B358" t="s" s="4">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C358" t="s" s="4">
         <v>14</v>
@@ -6974,13 +7040,13 @@
         <v>1.0</v>
       </c>
       <c r="B362" t="s" s="7">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C362" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D362" t="s" s="7">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E362" t="s" s="6">
         <v>2</v>
@@ -6994,13 +7060,13 @@
         <v>2.0</v>
       </c>
       <c r="B363" t="s" s="7">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="C363" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D363" t="s" s="7">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="E363" t="s" s="6">
         <v>2</v>
@@ -7180,7 +7246,7 @@
         <v>2</v>
       </c>
       <c r="D372" t="s" s="7">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E372" t="s" s="6">
         <v>2</v>
@@ -7194,7 +7260,7 @@
         <v>12.0</v>
       </c>
       <c r="B373" t="s" s="7">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C373" t="s" s="6">
         <v>2</v>
@@ -7236,7 +7302,7 @@
         <v>12</v>
       </c>
       <c r="B377" t="s" s="4">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C377" t="s" s="4">
         <v>14</v>
@@ -7316,13 +7382,13 @@
         <v>1.0</v>
       </c>
       <c r="B381" t="s" s="7">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C381" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D381" t="s" s="7">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E381" t="s" s="6">
         <v>2</v>
@@ -7336,13 +7402,13 @@
         <v>2.0</v>
       </c>
       <c r="B382" t="s" s="7">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="C382" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D382" t="s" s="7">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="E382" t="s" s="6">
         <v>2</v>
@@ -7522,7 +7588,7 @@
         <v>2</v>
       </c>
       <c r="D391" t="s" s="7">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E391" t="s" s="6">
         <v>2</v>
@@ -7536,7 +7602,7 @@
         <v>12.0</v>
       </c>
       <c r="B392" t="s" s="7">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C392" t="s" s="6">
         <v>2</v>
@@ -7578,7 +7644,7 @@
         <v>12</v>
       </c>
       <c r="B396" t="s" s="4">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C396" t="s" s="4">
         <v>14</v>
@@ -7658,13 +7724,13 @@
         <v>1.0</v>
       </c>
       <c r="B400" t="s" s="7">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C400" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D400" t="s" s="7">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E400" t="s" s="6">
         <v>2</v>
@@ -7678,13 +7744,13 @@
         <v>2.0</v>
       </c>
       <c r="B401" t="s" s="7">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="C401" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D401" t="s" s="7">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="E401" t="s" s="6">
         <v>2</v>
@@ -7864,7 +7930,7 @@
         <v>2</v>
       </c>
       <c r="D410" t="s" s="7">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E410" t="s" s="6">
         <v>2</v>
@@ -7878,7 +7944,7 @@
         <v>12.0</v>
       </c>
       <c r="B411" t="s" s="7">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C411" t="s" s="6">
         <v>2</v>
@@ -7900,7 +7966,7 @@
         <v>12</v>
       </c>
       <c r="B414" t="s" s="4">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C414" t="s" s="4">
         <v>14</v>
@@ -7980,13 +8046,13 @@
         <v>1.0</v>
       </c>
       <c r="B418" t="s" s="7">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C418" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D418" t="s" s="7">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E418" t="s" s="6">
         <v>2</v>
@@ -8000,13 +8066,13 @@
         <v>2.0</v>
       </c>
       <c r="B419" t="s" s="7">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="C419" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D419" t="s" s="7">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="E419" t="s" s="6">
         <v>2</v>
@@ -8186,7 +8252,7 @@
         <v>2</v>
       </c>
       <c r="D428" t="s" s="7">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E428" t="s" s="6">
         <v>2</v>
@@ -8200,7 +8266,7 @@
         <v>12.0</v>
       </c>
       <c r="B429" t="s" s="7">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C429" t="s" s="6">
         <v>2</v>
@@ -8222,7 +8288,7 @@
         <v>12</v>
       </c>
       <c r="B432" t="s" s="4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C432" t="s" s="4">
         <v>14</v>
@@ -8302,13 +8368,13 @@
         <v>1.0</v>
       </c>
       <c r="B436" t="s" s="7">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C436" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D436" t="s" s="7">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E436" t="s" s="6">
         <v>2</v>
@@ -8322,13 +8388,13 @@
         <v>2.0</v>
       </c>
       <c r="B437" t="s" s="7">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C437" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D437" t="s" s="7">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E437" t="s" s="6">
         <v>2</v>
@@ -8508,7 +8574,7 @@
         <v>2</v>
       </c>
       <c r="D446" t="s" s="7">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="E446" t="s" s="6">
         <v>2</v>
@@ -8517,120 +8583,120 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447"/>
+    <row r="447">
+      <c r="A447" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B447" t="s" s="7">
+        <v>77</v>
+      </c>
+      <c r="C447" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D447" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="E447" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F447" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="448"/>
-    <row r="449">
-      <c r="A449" t="s" s="4">
+    <row r="449"/>
+    <row r="450">
+      <c r="A450" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B449" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C449" t="s" s="4">
+      <c r="B450" t="s" s="4">
+        <v>92</v>
+      </c>
+      <c r="C450" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D449" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E449" t="s" s="4">
+      <c r="D450" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E450" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F449" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="s" s="9">
+      <c r="F450" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B450" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C450" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D450" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E450" t="s" s="9">
+      <c r="B451" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C451" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D451" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E451" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F450" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="s" s="8">
+      <c r="F451" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B451" t="s" s="8">
+      <c r="B452" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C451" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D451" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E451" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F451" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="s" s="5">
+      <c r="C452" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D452" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E452" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F452" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B452" t="s" s="5">
+      <c r="B453" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C452" t="s" s="5">
+      <c r="C453" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D452" t="s" s="5">
+      <c r="D453" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E452" t="s" s="5">
+      <c r="E453" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F452" t="s" s="5">
+      <c r="F453" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B453" t="s" s="7">
-        <v>76</v>
-      </c>
-      <c r="C453" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D453" t="s" s="7">
-        <v>77</v>
-      </c>
-      <c r="E453" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F453" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B454" t="s" s="7">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C454" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D454" t="s" s="7">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E454" t="s" s="6">
         <v>2</v>
@@ -8641,16 +8707,16 @@
     </row>
     <row r="455">
       <c r="A455" t="n" s="10">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B455" t="s" s="7">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="C455" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D455" t="s" s="7">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="E455" t="s" s="6">
         <v>2</v>
@@ -8661,16 +8727,16 @@
     </row>
     <row r="456">
       <c r="A456" t="n" s="10">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B456" t="s" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C456" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D456" t="s" s="7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E456" t="s" s="6">
         <v>2</v>
@@ -8681,16 +8747,16 @@
     </row>
     <row r="457">
       <c r="A457" t="n" s="10">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B457" t="s" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C457" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D457" t="s" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E457" t="s" s="6">
         <v>2</v>
@@ -8701,16 +8767,16 @@
     </row>
     <row r="458">
       <c r="A458" t="n" s="10">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B458" t="s" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C458" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D458" t="s" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E458" t="s" s="6">
         <v>2</v>
@@ -8721,16 +8787,16 @@
     </row>
     <row r="459">
       <c r="A459" t="n" s="10">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B459" t="s" s="7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C459" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D459" t="s" s="7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E459" t="s" s="6">
         <v>2</v>
@@ -8741,16 +8807,16 @@
     </row>
     <row r="460">
       <c r="A460" t="n" s="10">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B460" t="s" s="7">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C460" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D460" t="s" s="7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E460" t="s" s="6">
         <v>2</v>
@@ -8761,16 +8827,16 @@
     </row>
     <row r="461">
       <c r="A461" t="n" s="10">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B461" t="s" s="7">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C461" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D461" t="s" s="7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E461" t="s" s="6">
         <v>2</v>
@@ -8781,16 +8847,16 @@
     </row>
     <row r="462">
       <c r="A462" t="n" s="10">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B462" t="s" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C462" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D462" t="s" s="7">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E462" t="s" s="6">
         <v>2</v>
@@ -8801,158 +8867,158 @@
     </row>
     <row r="463">
       <c r="A463" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B463" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C463" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D463" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E463" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F463" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n" s="10">
         <v>11.0</v>
       </c>
-      <c r="B463" t="s" s="7">
+      <c r="B464" t="s" s="7">
         <v>48</v>
       </c>
-      <c r="C463" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D463" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="E463" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F463" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="464"/>
-    <row r="465"/>
-    <row r="466">
-      <c r="A466" t="s" s="4">
+      <c r="C464" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D464" t="s" s="7">
+        <v>76</v>
+      </c>
+      <c r="E464" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F464" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B465" t="s" s="7">
+        <v>77</v>
+      </c>
+      <c r="C465" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D465" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="E465" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F465" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466"/>
+    <row r="467"/>
+    <row r="468">
+      <c r="A468" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B466" t="s" s="4">
-        <v>91</v>
-      </c>
-      <c r="C466" t="s" s="4">
+      <c r="B468" t="s" s="4">
+        <v>93</v>
+      </c>
+      <c r="C468" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D466" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E466" t="s" s="4">
+      <c r="D468" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E468" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F466" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="s" s="9">
+      <c r="F468" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B467" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C467" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D467" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E467" t="s" s="9">
+      <c r="B469" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C469" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D469" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E469" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F467" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="s" s="8">
+      <c r="F469" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B468" t="s" s="8">
+      <c r="B470" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C468" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D468" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E468" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F468" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="s" s="5">
+      <c r="C470" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D470" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E470" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F470" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B469" t="s" s="5">
+      <c r="B471" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C469" t="s" s="5">
+      <c r="C471" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D469" t="s" s="5">
+      <c r="D471" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E469" t="s" s="5">
+      <c r="E471" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F469" t="s" s="5">
+      <c r="F471" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B470" t="s" s="7">
-        <v>92</v>
-      </c>
-      <c r="C470" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D470" t="s" s="7">
-        <v>93</v>
-      </c>
-      <c r="E470" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F470" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B471" t="s" s="7">
-        <v>94</v>
-      </c>
-      <c r="C471" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D471" t="s" s="7">
-        <v>95</v>
-      </c>
-      <c r="E471" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F471" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n" s="10">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B472" t="s" s="7">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="C472" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D472" t="s" s="7">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="E472" t="s" s="6">
         <v>2</v>
@@ -8963,16 +9029,16 @@
     </row>
     <row r="473">
       <c r="A473" t="n" s="10">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B473" t="s" s="7">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C473" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D473" t="s" s="7">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="E473" t="s" s="6">
         <v>2</v>
@@ -8983,16 +9049,16 @@
     </row>
     <row r="474">
       <c r="A474" t="n" s="10">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B474" t="s" s="7">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C474" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D474" t="s" s="7">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E474" t="s" s="6">
         <v>2</v>
@@ -9003,16 +9069,16 @@
     </row>
     <row r="475">
       <c r="A475" t="n" s="10">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="B475" t="s" s="7">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C475" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D475" t="s" s="7">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E475" t="s" s="6">
         <v>2</v>
@@ -9023,16 +9089,16 @@
     </row>
     <row r="476">
       <c r="A476" t="n" s="10">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="B476" t="s" s="7">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C476" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D476" t="s" s="7">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E476" t="s" s="6">
         <v>2</v>
@@ -9043,16 +9109,16 @@
     </row>
     <row r="477">
       <c r="A477" t="n" s="10">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B477" t="s" s="7">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C477" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D477" t="s" s="7">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E477" t="s" s="6">
         <v>2</v>
@@ -9063,16 +9129,16 @@
     </row>
     <row r="478">
       <c r="A478" t="n" s="10">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="B478" t="s" s="7">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C478" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D478" t="s" s="7">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E478" t="s" s="6">
         <v>2</v>
@@ -9083,21 +9149,6941 @@
     </row>
     <row r="479">
       <c r="A479" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B479" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C479" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D479" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E479" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F479" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B480" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C480" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D480" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E480" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F480" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n" s="10">
         <v>10.0</v>
       </c>
-      <c r="B479" t="s" s="7">
+      <c r="B481" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C481" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D481" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E481" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F481" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B482" t="s" s="7">
         <v>48</v>
       </c>
-      <c r="C479" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D479" t="s" s="7">
+      <c r="C482" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D482" t="s" s="7">
+        <v>76</v>
+      </c>
+      <c r="E482" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F482" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B483" t="s" s="7">
+        <v>77</v>
+      </c>
+      <c r="C483" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D483" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E483" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F483" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="B484" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="C484" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D484" t="s" s="7">
+        <v>59</v>
+      </c>
+      <c r="E484" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F484" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="485"/>
+    <row r="486"/>
+    <row r="487">
+      <c r="A487" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B487" t="s" s="4">
+        <v>94</v>
+      </c>
+      <c r="C487" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D487" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E487" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F487" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B488" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C488" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D488" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E488" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F488" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B489" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C489" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D489" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E489" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F489" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B490" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C490" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D490" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E490" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F490" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B491" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="C491" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D491" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="E491" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F491" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B492" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="C492" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D492" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="E492" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F492" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B493" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C493" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D493" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E493" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F493" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B494" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C494" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D494" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E494" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F494" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B495" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C495" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D495" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E495" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F495" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B496" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C496" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D496" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E496" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F496" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B497" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C497" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D497" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E497" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F497" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B498" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C498" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D498" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E498" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F498" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B499" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C499" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D499" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E499" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F499" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B500" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C500" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D500" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E500" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F500" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B501" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C501" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D501" t="s" s="7">
+        <v>76</v>
+      </c>
+      <c r="E501" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F501" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B502" t="s" s="7">
+        <v>77</v>
+      </c>
+      <c r="C502" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D502" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E502" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F502" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="B503" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="C503" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D503" t="s" s="7">
+        <v>59</v>
+      </c>
+      <c r="E503" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F503" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504"/>
+    <row r="505"/>
+    <row r="506">
+      <c r="A506" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B506" t="s" s="4">
+        <v>95</v>
+      </c>
+      <c r="C506" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D506" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E506" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F506" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B507" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C507" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D507" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E507" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F507" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B508" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C508" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D508" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E508" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F508" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B509" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C509" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D509" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E509" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F509" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B510" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="C510" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D510" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="E510" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F510" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B511" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="C511" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D511" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="E511" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F511" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B512" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C512" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D512" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E512" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F512" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B513" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C513" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D513" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E513" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F513" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B514" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C514" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D514" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E514" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F514" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B515" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C515" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D515" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E515" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F515" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B516" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C516" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D516" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E516" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F516" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B517" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C517" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D517" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E517" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F517" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B518" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C518" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D518" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E518" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F518" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B519" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C519" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D519" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E519" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F519" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B520" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C520" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D520" t="s" s="7">
+        <v>76</v>
+      </c>
+      <c r="E520" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F520" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B521" t="s" s="7">
+        <v>77</v>
+      </c>
+      <c r="C521" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D521" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E521" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F521" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="B522" t="s" s="7">
+        <v>62</v>
+      </c>
+      <c r="C522" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D522" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="E522" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F522" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523"/>
+    <row r="524"/>
+    <row r="525">
+      <c r="A525" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B525" t="s" s="4">
+        <v>96</v>
+      </c>
+      <c r="C525" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D525" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E525" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F525" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B526" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C526" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D526" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E526" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F526" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B527" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C527" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D527" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E527" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F527" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B528" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C528" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D528" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E528" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F528" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B529" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="C529" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D529" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="E529" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F529" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B530" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="C530" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D530" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="E530" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F530" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B531" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C531" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D531" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E531" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F531" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B532" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C532" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D532" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E532" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F532" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B533" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C533" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D533" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E533" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F533" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B534" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C534" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D534" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E534" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F534" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B535" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C535" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D535" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E535" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F535" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B536" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C536" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D536" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E536" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F536" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B537" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C537" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D537" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E537" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F537" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B538" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C538" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D538" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E538" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F538" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B539" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C539" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D539" t="s" s="7">
+        <v>76</v>
+      </c>
+      <c r="E539" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F539" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B540" t="s" s="7">
+        <v>77</v>
+      </c>
+      <c r="C540" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D540" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E540" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F540" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="B541" t="s" s="7">
+        <v>62</v>
+      </c>
+      <c r="C541" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D541" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="E541" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F541" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="542"/>
+    <row r="543"/>
+    <row r="544">
+      <c r="A544" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B544" t="s" s="4">
+        <v>97</v>
+      </c>
+      <c r="C544" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D544" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E544" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F544" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B545" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C545" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D545" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E545" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F545" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B546" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C546" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D546" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E546" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F546" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B547" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C547" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D547" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E547" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F547" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B548" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="C548" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D548" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="E548" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F548" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B549" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="C549" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D549" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="E549" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F549" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B550" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C550" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D550" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E550" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F550" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B551" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C551" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D551" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E551" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F551" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B552" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C552" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D552" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E552" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F552" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B553" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C553" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D553" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E553" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F553" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B554" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C554" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D554" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E554" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F554" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B555" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C555" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D555" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E555" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F555" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B556" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C556" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D556" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E556" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F556" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B557" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C557" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D557" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E557" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F557" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B558" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C558" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D558" t="s" s="7">
+        <v>76</v>
+      </c>
+      <c r="E558" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F558" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B559" t="s" s="7">
+        <v>77</v>
+      </c>
+      <c r="C559" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D559" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E559" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F559" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="B560" t="s" s="7">
+        <v>62</v>
+      </c>
+      <c r="C560" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D560" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="E560" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F560" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="561"/>
+    <row r="562"/>
+    <row r="563">
+      <c r="A563" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B563" t="s" s="4">
+        <v>98</v>
+      </c>
+      <c r="C563" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D563" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E563" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F563" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B564" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C564" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D564" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E564" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F564" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B565" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C565" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D565" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E565" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F565" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B566" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C566" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D566" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E566" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F566" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B567" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="C567" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D567" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="E567" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F567" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B568" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="C568" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D568" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="E568" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F568" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B569" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C569" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D569" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E569" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F569" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B570" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C570" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D570" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E570" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F570" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B571" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C571" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D571" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E571" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F571" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B572" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C572" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D572" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E572" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F572" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B573" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C573" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D573" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E573" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F573" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B574" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C574" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D574" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E574" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F574" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B575" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C575" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D575" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E575" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F575" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B576" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C576" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D576" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E576" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F576" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B577" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C577" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D577" t="s" s="7">
+        <v>76</v>
+      </c>
+      <c r="E577" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F577" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B578" t="s" s="7">
+        <v>77</v>
+      </c>
+      <c r="C578" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D578" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E578" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F578" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="B579" t="s" s="7">
+        <v>62</v>
+      </c>
+      <c r="C579" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D579" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="E579" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F579" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="580"/>
+    <row r="581"/>
+    <row r="582">
+      <c r="A582" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B582" t="s" s="4">
+        <v>99</v>
+      </c>
+      <c r="C582" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D582" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E582" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F582" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B583" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C583" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D583" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E583" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F583" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B584" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C584" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D584" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E584" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F584" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B585" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C585" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D585" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E585" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F585" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B586" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="C586" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D586" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="E586" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F586" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B587" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="C587" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D587" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="E587" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F587" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B588" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C588" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D588" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E588" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F588" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B589" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C589" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D589" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E589" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F589" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B590" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C590" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D590" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E590" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F590" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B591" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C591" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D591" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E591" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F591" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B592" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C592" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D592" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E592" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F592" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B593" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C593" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D593" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E593" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F593" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B594" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C594" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D594" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E594" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F594" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B595" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C595" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D595" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E595" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F595" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B596" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C596" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D596" t="s" s="7">
+        <v>76</v>
+      </c>
+      <c r="E596" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F596" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B597" t="s" s="7">
+        <v>77</v>
+      </c>
+      <c r="C597" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D597" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E597" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F597" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="B598" t="s" s="7">
+        <v>62</v>
+      </c>
+      <c r="C598" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D598" t="s" s="7">
+        <v>69</v>
+      </c>
+      <c r="E598" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F598" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n" s="10">
+        <v>14.0</v>
+      </c>
+      <c r="B599" t="s" s="7">
+        <v>70</v>
+      </c>
+      <c r="C599" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D599" t="s" s="7">
+        <v>71</v>
+      </c>
+      <c r="E599" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F599" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s" s="8">
+        <v>72</v>
+      </c>
+      <c r="B600" t="s" s="8">
+        <v>73</v>
+      </c>
+      <c r="C600" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D600" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E600" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F600" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="601"/>
+    <row r="602"/>
+    <row r="603">
+      <c r="A603" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B603" t="s" s="4">
+        <v>100</v>
+      </c>
+      <c r="C603" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D603" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E603" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F603" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B604" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C604" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D604" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E604" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F604" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B605" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C605" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D605" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E605" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F605" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B606" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C606" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D606" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E606" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F606" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B607" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="C607" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D607" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="E607" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F607" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B608" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="C608" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D608" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="E608" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F608" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B609" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C609" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D609" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E609" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F609" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B610" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C610" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D610" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E610" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F610" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B611" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C611" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D611" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E611" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F611" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B612" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C612" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D612" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E612" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F612" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B613" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C613" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D613" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E613" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F613" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B614" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C614" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D614" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E614" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F614" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B615" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C615" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D615" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E615" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F615" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B616" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C616" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D616" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E616" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F616" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B617" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C617" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D617" t="s" s="7">
+        <v>76</v>
+      </c>
+      <c r="E617" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F617" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B618" t="s" s="7">
+        <v>77</v>
+      </c>
+      <c r="C618" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D618" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E618" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F618" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="B619" t="s" s="7">
+        <v>62</v>
+      </c>
+      <c r="C619" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D619" t="s" s="7">
+        <v>69</v>
+      </c>
+      <c r="E619" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F619" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n" s="10">
+        <v>14.0</v>
+      </c>
+      <c r="B620" t="s" s="7">
+        <v>70</v>
+      </c>
+      <c r="C620" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D620" t="s" s="7">
+        <v>71</v>
+      </c>
+      <c r="E620" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F620" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s" s="8">
+        <v>72</v>
+      </c>
+      <c r="B621" t="s" s="8">
+        <v>73</v>
+      </c>
+      <c r="C621" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D621" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E621" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F621" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622"/>
+    <row r="623"/>
+    <row r="624">
+      <c r="A624" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B624" t="s" s="4">
+        <v>101</v>
+      </c>
+      <c r="C624" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D624" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E624" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F624" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B625" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C625" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D625" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E625" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F625" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B626" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C626" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D626" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E626" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F626" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B627" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C627" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D627" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E627" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F627" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B628" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="C628" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D628" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="E628" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F628" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B629" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="C629" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D629" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="E629" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F629" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B630" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C630" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D630" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E630" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F630" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B631" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C631" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D631" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E631" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F631" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B632" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C632" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D632" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E632" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F632" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B633" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C633" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D633" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E633" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F633" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B634" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C634" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D634" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E634" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F634" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B635" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C635" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D635" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E635" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F635" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B636" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C636" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D636" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E636" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F636" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B637" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C637" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D637" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E637" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F637" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B638" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C638" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D638" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="E638" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F638" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B639" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C639" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D639" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E639" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F639" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="B640" t="s" s="7">
+        <v>62</v>
+      </c>
+      <c r="C640" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D640" t="s" s="7">
+        <v>69</v>
+      </c>
+      <c r="E640" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F640" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n" s="10">
+        <v>14.0</v>
+      </c>
+      <c r="B641" t="s" s="7">
+        <v>70</v>
+      </c>
+      <c r="C641" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D641" t="s" s="7">
+        <v>71</v>
+      </c>
+      <c r="E641" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F641" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s" s="8">
+        <v>72</v>
+      </c>
+      <c r="B642" t="s" s="8">
+        <v>73</v>
+      </c>
+      <c r="C642" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D642" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E642" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F642" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="643"/>
+    <row r="644"/>
+    <row r="645">
+      <c r="A645" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B645" t="s" s="4">
+        <v>102</v>
+      </c>
+      <c r="C645" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D645" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E645" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F645" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B646" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C646" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D646" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E646" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F646" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B647" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C647" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D647" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E647" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F647" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B648" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C648" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D648" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E648" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F648" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B649" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="C649" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D649" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="E649" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F649" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B650" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="C650" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D650" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="E650" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F650" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B651" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C651" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D651" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E651" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F651" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B652" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C652" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D652" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E652" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F652" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B653" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C653" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D653" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E653" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F653" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B654" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C654" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D654" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E654" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F654" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B655" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C655" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D655" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E655" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F655" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B656" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C656" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D656" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E656" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F656" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B657" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C657" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D657" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E657" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F657" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B658" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C658" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D658" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E658" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F658" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B659" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C659" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D659" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="E659" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F659" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B660" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C660" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D660" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E660" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F660" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="B661" t="s" s="7">
+        <v>62</v>
+      </c>
+      <c r="C661" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D661" t="s" s="7">
+        <v>69</v>
+      </c>
+      <c r="E661" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F661" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n" s="10">
+        <v>14.0</v>
+      </c>
+      <c r="B662" t="s" s="7">
+        <v>70</v>
+      </c>
+      <c r="C662" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D662" t="s" s="7">
+        <v>71</v>
+      </c>
+      <c r="E662" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F662" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="s" s="8">
+        <v>72</v>
+      </c>
+      <c r="B663" t="s" s="8">
+        <v>73</v>
+      </c>
+      <c r="C663" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D663" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E663" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F663" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="664"/>
+    <row r="665"/>
+    <row r="666">
+      <c r="A666" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B666" t="s" s="4">
+        <v>103</v>
+      </c>
+      <c r="C666" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D666" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E666" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F666" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B667" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C667" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D667" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E667" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F667" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B668" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C668" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D668" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E668" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F668" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B669" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C669" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D669" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E669" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F669" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B670" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="C670" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D670" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="E670" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F670" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B671" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="C671" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D671" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="E671" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F671" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B672" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C672" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D672" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E672" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F672" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B673" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C673" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D673" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E673" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F673" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B674" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C674" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D674" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E674" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F674" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B675" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C675" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D675" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E675" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F675" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B676" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C676" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D676" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E676" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F676" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B677" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C677" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D677" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E677" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F677" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B678" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C678" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D678" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E678" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F678" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B679" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C679" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D679" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E679" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F679" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B680" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C680" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D680" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="E680" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F680" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B681" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C681" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D681" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E681" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F681" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="B682" t="s" s="7">
+        <v>62</v>
+      </c>
+      <c r="C682" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D682" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="E682" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F682" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="683"/>
+    <row r="684"/>
+    <row r="685">
+      <c r="A685" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B685" t="s" s="4">
+        <v>104</v>
+      </c>
+      <c r="C685" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D685" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E685" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F685" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B686" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C686" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D686" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E686" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F686" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B687" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C687" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D687" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E687" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F687" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B688" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C688" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D688" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E688" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F688" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B689" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="C689" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D689" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="E689" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F689" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B690" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="C690" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D690" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="E690" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F690" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B691" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C691" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D691" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E691" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F691" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B692" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C692" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D692" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E692" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F692" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B693" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C693" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D693" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E693" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F693" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B694" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C694" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D694" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E694" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F694" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B695" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C695" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D695" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E695" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F695" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B696" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C696" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D696" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E696" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F696" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B697" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C697" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D697" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E697" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F697" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B698" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C698" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D698" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E698" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F698" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B699" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C699" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D699" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="E699" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F699" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B700" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C700" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D700" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E700" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F700" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="B701" t="s" s="7">
+        <v>62</v>
+      </c>
+      <c r="C701" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D701" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="E701" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F701" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="702"/>
+    <row r="703"/>
+    <row r="704">
+      <c r="A704" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B704" t="s" s="4">
+        <v>105</v>
+      </c>
+      <c r="C704" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D704" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E704" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F704" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B705" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C705" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D705" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E705" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F705" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B706" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C706" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D706" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E706" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F706" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B707" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C707" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D707" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E707" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F707" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B708" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="C708" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D708" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="E708" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F708" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B709" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="C709" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D709" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="E709" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F709" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B710" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C710" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D710" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E710" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F710" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B711" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C711" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D711" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E711" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F711" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B712" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C712" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D712" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E712" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F712" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B713" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C713" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D713" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E713" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F713" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B714" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C714" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D714" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E714" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F714" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B715" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C715" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D715" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E715" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F715" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B716" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C716" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D716" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E716" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F716" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B717" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C717" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D717" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E717" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F717" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B718" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C718" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D718" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="E718" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F718" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B719" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C719" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D719" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E719" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F719" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="B720" t="s" s="7">
+        <v>62</v>
+      </c>
+      <c r="C720" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D720" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="E720" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F720" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="721"/>
+    <row r="722"/>
+    <row r="723">
+      <c r="A723" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B723" t="s" s="4">
+        <v>106</v>
+      </c>
+      <c r="C723" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D723" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E723" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F723" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B724" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C724" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D724" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E724" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F724" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B725" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C725" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D725" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E725" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F725" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B726" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C726" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D726" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E726" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F726" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B727" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="C727" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D727" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="E727" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F727" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B728" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="C728" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D728" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="E728" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F728" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B729" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C729" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D729" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E729" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F729" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B730" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C730" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D730" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E730" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F730" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B731" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C731" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D731" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E731" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F731" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B732" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C732" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D732" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E732" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F732" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B733" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C733" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D733" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E733" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F733" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B734" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C734" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D734" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E734" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F734" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B735" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C735" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D735" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E735" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F735" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B736" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C736" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D736" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E736" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F736" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B737" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C737" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D737" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="E737" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F737" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B738" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C738" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D738" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E738" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F738" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="B739" t="s" s="7">
+        <v>62</v>
+      </c>
+      <c r="C739" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D739" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="E739" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F739" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="740"/>
+    <row r="741"/>
+    <row r="742">
+      <c r="A742" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B742" t="s" s="4">
+        <v>107</v>
+      </c>
+      <c r="C742" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D742" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E742" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F742" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B743" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C743" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D743" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E743" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F743" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B744" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C744" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D744" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E744" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F744" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B745" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C745" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D745" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E745" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F745" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B746" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="C746" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D746" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="E746" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F746" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B747" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="C747" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D747" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="E747" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F747" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B748" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C748" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D748" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E748" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F748" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B749" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C749" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D749" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E749" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F749" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B750" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C750" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D750" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E750" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F750" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B751" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C751" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D751" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E751" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F751" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B752" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C752" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D752" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E752" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F752" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B753" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C753" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D753" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E753" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F753" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B754" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C754" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D754" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E754" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F754" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B755" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C755" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D755" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E755" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F755" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B756" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C756" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D756" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="E756" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F756" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B757" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C757" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D757" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E757" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F757" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="B758" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="C758" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D758" t="s" s="7">
+        <v>59</v>
+      </c>
+      <c r="E758" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F758" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="759"/>
+    <row r="760"/>
+    <row r="761">
+      <c r="A761" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B761" t="s" s="4">
+        <v>108</v>
+      </c>
+      <c r="C761" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D761" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E761" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F761" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B762" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C762" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D762" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E762" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F762" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B763" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C763" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D763" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E763" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F763" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B764" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C764" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D764" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E764" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F764" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B765" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="C765" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D765" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="E765" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F765" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B766" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="C766" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D766" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="E766" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F766" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B767" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C767" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D767" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E767" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F767" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B768" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C768" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D768" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E768" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F768" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B769" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C769" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D769" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E769" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F769" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B770" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C770" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D770" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E770" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F770" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B771" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C771" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D771" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E771" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F771" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B772" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C772" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D772" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E772" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F772" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B773" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C773" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D773" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E773" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F773" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B774" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C774" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D774" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E774" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F774" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B775" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C775" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D775" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="E775" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F775" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B776" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C776" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D776" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E776" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F776" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="B777" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="C777" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D777" t="s" s="7">
+        <v>59</v>
+      </c>
+      <c r="E777" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F777" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="778"/>
+    <row r="779"/>
+    <row r="780">
+      <c r="A780" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B780" t="s" s="4">
+        <v>109</v>
+      </c>
+      <c r="C780" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D780" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E780" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F780" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B781" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C781" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D781" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E781" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F781" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B782" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C782" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D782" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E782" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F782" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B783" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C783" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D783" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E783" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F783" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B784" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="C784" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D784" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="E784" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F784" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B785" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="C785" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D785" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="E785" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F785" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B786" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C786" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D786" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E786" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F786" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B787" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C787" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D787" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E787" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F787" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B788" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C788" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D788" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E788" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F788" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B789" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C789" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D789" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E789" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F789" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B790" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C790" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D790" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E790" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F790" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B791" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C791" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D791" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E791" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F791" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B792" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C792" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D792" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E792" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F792" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B793" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C793" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D793" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E793" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F793" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B794" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C794" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D794" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="E794" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F794" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B795" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C795" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D795" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="E795" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F795" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="796"/>
+    <row r="797"/>
+    <row r="798">
+      <c r="A798" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B798" t="s" s="4">
+        <v>110</v>
+      </c>
+      <c r="C798" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D798" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E798" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F798" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B799" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C799" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D799" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E799" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F799" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B800" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C800" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D800" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E800" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F800" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B801" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C801" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D801" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E801" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F801" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B802" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="C802" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D802" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="E802" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F802" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B803" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="C803" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D803" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="E803" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F803" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B804" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C804" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D804" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E804" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F804" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B805" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C805" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D805" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E805" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F805" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B806" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C806" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D806" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E806" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F806" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B807" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C807" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D807" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E807" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F807" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B808" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C808" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D808" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E808" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F808" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B809" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C809" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D809" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E809" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F809" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B810" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C810" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D810" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E810" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F810" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B811" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C811" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D811" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E811" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F811" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B812" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C812" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D812" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="E812" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F812" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B813" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C813" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D813" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="E813" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F813" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="814"/>
+    <row r="815"/>
+    <row r="816">
+      <c r="A816" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B816" t="s" s="4">
+        <v>111</v>
+      </c>
+      <c r="C816" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D816" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E816" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F816" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B817" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C817" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D817" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E817" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F817" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B818" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C818" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D818" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E818" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F818" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B819" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C819" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D819" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E819" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F819" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B820" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="C820" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D820" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="E820" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F820" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B821" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="C821" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D821" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="E821" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F821" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B822" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C822" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D822" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E822" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F822" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B823" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C823" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D823" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E823" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F823" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B824" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C824" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D824" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E824" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F824" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B825" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C825" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D825" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E825" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F825" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B826" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C826" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D826" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E826" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F826" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B827" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C827" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D827" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E827" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F827" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B828" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C828" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D828" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E828" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F828" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B829" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C829" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D829" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E829" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F829" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B830" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C830" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D830" t="s" s="7">
         <v>49</v>
       </c>
-      <c r="E479" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F479" t="s" s="6">
+      <c r="E830" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F830" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="831"/>
+    <row r="832"/>
+    <row r="833">
+      <c r="A833" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B833" t="s" s="4">
+        <v>112</v>
+      </c>
+      <c r="C833" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D833" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E833" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F833" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B834" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C834" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D834" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E834" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F834" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B835" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C835" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D835" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E835" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F835" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B836" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C836" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D836" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E836" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F836" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B837" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="C837" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D837" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="E837" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F837" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B838" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="C838" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D838" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="E838" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F838" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B839" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C839" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D839" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E839" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F839" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B840" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C840" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D840" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E840" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F840" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B841" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C841" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D841" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E841" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F841" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B842" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C842" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D842" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E842" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F842" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B843" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C843" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D843" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E843" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F843" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B844" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C844" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D844" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E844" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F844" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B845" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C845" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D845" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E845" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F845" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B846" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C846" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D846" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E846" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F846" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B847" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C847" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D847" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="E847" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F847" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="848"/>
+    <row r="849"/>
+    <row r="850">
+      <c r="A850" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B850" t="s" s="4">
+        <v>113</v>
+      </c>
+      <c r="C850" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D850" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E850" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F850" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B851" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C851" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D851" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E851" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F851" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B852" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C852" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D852" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E852" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F852" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B853" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C853" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D853" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E853" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F853" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B854" t="s" s="7">
+        <v>114</v>
+      </c>
+      <c r="C854" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D854" t="s" s="7">
+        <v>115</v>
+      </c>
+      <c r="E854" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F854" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B855" t="s" s="7">
+        <v>116</v>
+      </c>
+      <c r="C855" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D855" t="s" s="7">
+        <v>117</v>
+      </c>
+      <c r="E855" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F855" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B856" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C856" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D856" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E856" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F856" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B857" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C857" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D857" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E857" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F857" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B858" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C858" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D858" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E858" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F858" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B859" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C859" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D859" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E859" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F859" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B860" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C860" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D860" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E860" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F860" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B861" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C861" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D861" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E861" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F861" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B862" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C862" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D862" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E862" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F862" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B863" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C863" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D863" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="E863" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F863" t="s" s="6">
         <v>2</v>
       </c>
     </row>
@@ -9156,10 +16142,54 @@
     <mergeCell ref="B416:F416"/>
     <mergeCell ref="B433:D433"/>
     <mergeCell ref="B434:F434"/>
-    <mergeCell ref="B450:D450"/>
-    <mergeCell ref="B451:F451"/>
-    <mergeCell ref="B467:D467"/>
-    <mergeCell ref="B468:F468"/>
+    <mergeCell ref="B451:D451"/>
+    <mergeCell ref="B452:F452"/>
+    <mergeCell ref="B469:D469"/>
+    <mergeCell ref="B470:F470"/>
+    <mergeCell ref="B488:D488"/>
+    <mergeCell ref="B489:F489"/>
+    <mergeCell ref="B507:D507"/>
+    <mergeCell ref="B508:F508"/>
+    <mergeCell ref="B526:D526"/>
+    <mergeCell ref="B527:F527"/>
+    <mergeCell ref="B545:D545"/>
+    <mergeCell ref="B546:F546"/>
+    <mergeCell ref="B564:D564"/>
+    <mergeCell ref="B565:F565"/>
+    <mergeCell ref="B583:D583"/>
+    <mergeCell ref="B584:F584"/>
+    <mergeCell ref="B600:F600"/>
+    <mergeCell ref="B604:D604"/>
+    <mergeCell ref="B605:F605"/>
+    <mergeCell ref="B621:F621"/>
+    <mergeCell ref="B625:D625"/>
+    <mergeCell ref="B626:F626"/>
+    <mergeCell ref="B642:F642"/>
+    <mergeCell ref="B646:D646"/>
+    <mergeCell ref="B647:F647"/>
+    <mergeCell ref="B663:F663"/>
+    <mergeCell ref="B667:D667"/>
+    <mergeCell ref="B668:F668"/>
+    <mergeCell ref="B686:D686"/>
+    <mergeCell ref="B687:F687"/>
+    <mergeCell ref="B705:D705"/>
+    <mergeCell ref="B706:F706"/>
+    <mergeCell ref="B724:D724"/>
+    <mergeCell ref="B725:F725"/>
+    <mergeCell ref="B743:D743"/>
+    <mergeCell ref="B744:F744"/>
+    <mergeCell ref="B762:D762"/>
+    <mergeCell ref="B763:F763"/>
+    <mergeCell ref="B781:D781"/>
+    <mergeCell ref="B782:F782"/>
+    <mergeCell ref="B799:D799"/>
+    <mergeCell ref="B800:F800"/>
+    <mergeCell ref="B817:D817"/>
+    <mergeCell ref="B818:F818"/>
+    <mergeCell ref="B834:D834"/>
+    <mergeCell ref="B835:F835"/>
+    <mergeCell ref="B851:D851"/>
+    <mergeCell ref="B852:F852"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
